--- a/OrganizationTreeForm/OrganizationTreeForm/Data/Soccer.xlsx
+++ b/OrganizationTreeForm/OrganizationTreeForm/Data/Soccer.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSstudy\HHNStudy\OrganizationTreeForm\DSstudy\OrganizationTreeForm\OrganizationTreeForm\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10CFB0C-AF14-4CD8-9226-F86C503AD93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Country" sheetId="1" r:id="rId1"/>
+    <sheet name="League" sheetId="2" r:id="rId2"/>
+    <sheet name="Team" sheetId="3" r:id="rId3"/>
+    <sheet name="Player" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>UID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,102 +41,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TeamName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>K리그</t>
+  </si>
+  <si>
+    <t>FC 서울</t>
+  </si>
+  <si>
+    <t>김민재</t>
+  </si>
+  <si>
+    <t>이강인</t>
+  </si>
+  <si>
+    <t>울산 현대</t>
+  </si>
+  <si>
+    <t>조규성</t>
+  </si>
+  <si>
+    <t>잉글랜드</t>
+  </si>
+  <si>
+    <t>런던</t>
+  </si>
+  <si>
+    <t>프리미어리그</t>
+  </si>
+  <si>
+    <t>아스날</t>
+  </si>
+  <si>
+    <t>부카요 사카</t>
+  </si>
+  <si>
+    <t>디클런 라이스</t>
+  </si>
+  <si>
+    <t>스페인</t>
+  </si>
+  <si>
+    <t>마드리드</t>
+  </si>
+  <si>
+    <t>라리가</t>
+  </si>
+  <si>
+    <t>레알 마드리드</t>
+  </si>
+  <si>
+    <t>주드 벨링엄</t>
+  </si>
+  <si>
+    <t>비니시우스 주니오르</t>
+  </si>
+  <si>
+    <t>수비수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미드필더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentCountry</t>
+  </si>
+  <si>
+    <t>ParentTeam</t>
+  </si>
+  <si>
+    <t>ParentLeague</t>
+  </si>
+  <si>
     <t>LeagueName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeamName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>서울</t>
-  </si>
-  <si>
-    <t>K리그</t>
-  </si>
-  <si>
-    <t>FC 서울</t>
-  </si>
-  <si>
-    <t>김민재</t>
-  </si>
-  <si>
-    <t>이강인</t>
-  </si>
-  <si>
-    <t>울산 현대</t>
-  </si>
-  <si>
-    <t>조규성</t>
-  </si>
-  <si>
-    <t>잉글랜드</t>
-  </si>
-  <si>
-    <t>런던</t>
-  </si>
-  <si>
-    <t>프리미어리그</t>
-  </si>
-  <si>
-    <t>아스날</t>
-  </si>
-  <si>
-    <t>부카요 사카</t>
-  </si>
-  <si>
-    <t>디클런 라이스</t>
-  </si>
-  <si>
-    <t>스페인</t>
-  </si>
-  <si>
-    <t>마드리드</t>
-  </si>
-  <si>
-    <t>라리가</t>
-  </si>
-  <si>
-    <t>레알 마드리드</t>
-  </si>
-  <si>
-    <t>주드 벨링엄</t>
-  </si>
-  <si>
-    <t>비니시우스 주니오르</t>
-  </si>
-  <si>
-    <t>수비수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미드필더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,26 +466,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,214 +495,431 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="1">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
+      <c r="B6" s="1">
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
+    </row>
+    <row r="7" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/OrganizationTreeForm/OrganizationTreeForm/Data/Soccer.xlsx
+++ b/OrganizationTreeForm/OrganizationTreeForm/Data/Soccer.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>UID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>LeagueName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +474,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -495,6 +499,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
@@ -506,7 +513,9 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -524,7 +533,9 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -542,7 +553,9 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -560,7 +573,9 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -578,7 +593,9 @@
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -596,7 +613,9 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -614,7 +633,9 @@
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -623,15 +644,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -640,68 +662,92 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -712,10 +758,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -724,68 +770,92 @@
     <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -796,10 +866,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -810,7 +880,7 @@
     <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -823,8 +893,11 @@
       <c r="D1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -837,8 +910,11 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -851,8 +927,11 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -865,8 +944,11 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -879,8 +961,11 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -893,8 +978,11 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -907,8 +995,11 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -920,6 +1011,9 @@
       </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/OrganizationTreeForm/OrganizationTreeForm/Data/Soccer.xlsx
+++ b/OrganizationTreeForm/OrganizationTreeForm/Data/Soccer.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>UID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,11 +138,11 @@
     <t>ParentLeague</t>
   </si>
   <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LeagueName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +474,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -650,10 +650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -662,18 +662,21 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -683,8 +686,11 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -694,8 +700,11 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -705,8 +714,11 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -716,8 +728,11 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -727,8 +742,11 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -738,8 +756,11 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -748,20 +769,24 @@
       </c>
       <c r="C8" s="1">
         <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -770,7 +795,7 @@
     <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -778,10 +803,13 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -791,8 +819,11 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -802,8 +833,11 @@
       <c r="C3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -813,8 +847,11 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -824,8 +861,11 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -835,8 +875,11 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="D6" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -846,8 +889,11 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -856,6 +902,9 @@
       </c>
       <c r="C8" s="1">
         <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -866,7 +915,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -880,7 +929,7 @@
     <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -894,10 +943,13 @@
         <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -913,8 +965,11 @@
       <c r="E2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -930,8 +985,11 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -947,8 +1005,11 @@
       <c r="E4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -964,8 +1025,11 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="F5" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -981,8 +1045,11 @@
       <c r="E6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="F6" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -998,8 +1065,11 @@
       <c r="E7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="F7" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1014,6 +1084,9 @@
       </c>
       <c r="E8" s="1">
         <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/OrganizationTreeForm/OrganizationTreeForm/Data/Soccer.xlsx
+++ b/OrganizationTreeForm/OrganizationTreeForm/Data/Soccer.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Nakhong\DSstudy\OrganizationTreeForm\OrganizationTreeForm\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSstudy\HHNStudy\OrganizationTreeForm\DSstudy\OrganizationTreeForm\OrganizationTreeForm\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3389768-FAF2-45C0-9737-FEFA5344D11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="10692" windowWidth="19416" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>CountryName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,13 +147,37 @@
   </si>
   <si>
     <t>Uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,22 +498,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -510,10 +533,13 @@
         <v>32</v>
       </c>
       <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -532,11 +558,14 @@
       <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -555,11 +584,14 @@
       <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -578,11 +610,14 @@
       <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -601,11 +636,14 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -624,11 +662,14 @@
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -647,11 +688,14 @@
       <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -670,31 +714,35 @@
       <c r="F8" s="1">
         <v>4</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -711,7 +759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>7</v>
       </c>
@@ -728,7 +776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -745,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -762,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -779,13 +827,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -798,20 +846,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -828,7 +876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -845,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -862,7 +910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -879,13 +927,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -899,26 +947,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -935,7 +983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -955,7 +1003,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -975,7 +1023,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -995,7 +1043,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1007,7 +1055,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>

--- a/OrganizationTreeForm/OrganizationTreeForm/Data/Soccer.xlsx
+++ b/OrganizationTreeForm/OrganizationTreeForm/Data/Soccer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Nakhong\DSstudy\OrganizationTreeForm\OrganizationTreeForm\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64832C5A-EB67-4D20-B11C-80B28C7E92FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22B6C70-80DB-4161-9C50-6219DB90D227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10580" windowWidth="19200" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Soccer" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>PlayerNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,33 @@
   </si>
   <si>
     <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/proxy/zIGP7Awr7RNPKAwedSWXyq2TdOFSGsbJzQlizvUwu99i9nDr91xhl5tsr7JVJJiz3vw1UTweQ8kFaOBz6b6ElrhqhWb_bvBryjBxbS3FnIpU</t>
+  </si>
+  <si>
+    <t>ImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://file2.nocutnews.co.kr/newsroom/image/2019/06/16/20190616051236801476_0_600_800.jpg</t>
+  </si>
+  <si>
+    <t>https://t1.daumcdn.net/media/img-section/sports13/player/14/1479630.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.spotvnews.co.kr/news/photo/202307/618094_870995_4527.jpg</t>
+  </si>
+  <si>
+    <t>https://news.nateimg.co.kr/orgImg/my/2024/11/02/2024110212413628458_l.jpg</t>
+  </si>
+  <si>
+    <t>https://www.elle.co.kr/resources_old/online/org_online_image/el/121afb14-e819-41d6-a90d-ec374f38b16e.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chosun.com/resizer/v2/C56RWJED4GZAQHLQTBMOCK5MBQ.jpg?auth=f3d759b6138101641ed27a6478278e9d7ce273ad33bf8653a9e8ef302670e1eb&amp;width=464</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +207,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,18 +235,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,7 +530,7 @@
   <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -502,6 +540,7 @@
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -529,7 +568,9 @@
       <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
@@ -765,7 +806,9 @@
       <c r="H12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
@@ -791,7 +834,9 @@
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
@@ -817,7 +862,9 @@
       <c r="H14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
@@ -843,7 +890,9 @@
       <c r="H15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
@@ -869,7 +918,9 @@
       <c r="H16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
@@ -895,7 +946,9 @@
       <c r="H17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
@@ -921,7 +974,9 @@
       <c r="H18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
@@ -2136,7 +2191,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I14" r:id="rId1" xr:uid="{D2AC097C-EF9F-4670-9B2D-47FFB4228EF5}"/>
+    <hyperlink ref="I17" r:id="rId2" xr:uid="{2A4EEF3A-0EBB-4833-960D-1B7256C44823}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>